--- a/Project_1/Project1Tables.xlsx
+++ b/Project_1/Project1Tables.xlsx
@@ -770,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3927933-530B-42F2-A7C0-B2AA729B8509}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:M11"/>
     </sheetView>
   </sheetViews>
